--- a/amk-main-public/демо Формат ТКП.xlsx
+++ b/amk-main-public/демо Формат ТКП.xlsx
@@ -1359,8 +1359,8 @@
   </sheetPr>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="V40" sqref="V40" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="A32" sqref="32:32" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1751,7 +1751,7 @@
       <c r="P19" s="40"/>
       <c r="Q19" s="40"/>
     </row>
-    <row r="20" customHeight="1" ht="35">
+    <row r="20" customHeight="1" ht="34">
       <c r="A20" s="29" t="s">
         <v>39</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="P22" s="40"/>
       <c r="Q22" s="40"/>
     </row>
-    <row r="23" customHeight="1" ht="47">
+    <row r="23" customHeight="1" ht="46">
       <c r="A23" s="29" t="s">
         <v>51</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="P23" s="40"/>
       <c r="Q23" s="40"/>
     </row>
-    <row r="24" customHeight="1" ht="49">
+    <row r="24" customHeight="1" ht="48">
       <c r="A24" s="29" t="s">
         <v>55</v>
       </c>
@@ -1913,7 +1913,7 @@
       <c r="P25" s="40"/>
       <c r="Q25" s="40"/>
     </row>
-    <row r="26" customHeight="1" ht="31">
+    <row r="26" customHeight="1" ht="30">
       <c r="A26" s="29" t="s">
         <v>63</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="P26" s="40"/>
       <c r="Q26" s="40"/>
     </row>
-    <row r="27" customHeight="1" ht="19">
+    <row r="27" customHeight="1" ht="18">
       <c r="A27" s="29" t="s">
         <v>66</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
     </row>
-    <row r="30" customHeight="1" ht="47">
+    <row r="30" customHeight="1" ht="46">
       <c r="A30" s="29" t="s">
         <v>76</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="P30" s="40"/>
       <c r="Q30" s="40"/>
     </row>
-    <row r="31" customHeight="1" ht="30">
+    <row r="31" customHeight="1" ht="28">
       <c r="A31" s="29" t="s">
         <v>80</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="P31" s="40"/>
       <c r="Q31" s="40"/>
     </row>
-    <row r="32" customHeight="1" ht="18">
+    <row r="32" customHeight="1" ht="29">
       <c r="A32" s="29" t="s">
         <v>84</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="P33" s="40"/>
       <c r="Q33" s="40"/>
     </row>
-    <row r="34" customHeight="1" ht="32">
+    <row r="34" customHeight="1" ht="31">
       <c r="A34" s="29" t="s">
         <v>89</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="P34" s="40"/>
       <c r="Q34" s="40"/>
     </row>
-    <row r="35" customHeight="1" ht="52">
+    <row r="35" customHeight="1" ht="51">
       <c r="A35" s="29" t="s">
         <v>91</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="P36" s="40"/>
       <c r="Q36" s="40"/>
     </row>
-    <row r="37" customHeight="1" ht="16">
+    <row r="37" customHeight="1" ht="15">
       <c r="A37" s="29" t="s">
         <v>98</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="P37" s="40"/>
       <c r="Q37" s="40"/>
     </row>
-    <row r="38" customHeight="1" ht="31">
+    <row r="38" customHeight="1" ht="30">
       <c r="A38" s="29" t="s">
         <v>102</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="40"/>
     </row>
-    <row r="39" customHeight="1" ht="31">
+    <row r="39" customHeight="1" ht="30">
       <c r="A39" s="29" t="s">
         <v>105</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="P41" s="40"/>
       <c r="Q41" s="40"/>
     </row>
-    <row r="42" customHeight="1" ht="43">
+    <row r="42" customHeight="1" ht="42">
       <c r="A42" s="53" t="s">
         <v>113</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="40"/>
     </row>
-    <row r="43" customHeight="1" ht="44">
+    <row r="43" customHeight="1" ht="43">
       <c r="A43" s="29" t="s">
         <v>114</v>
       </c>
@@ -2511,7 +2511,7 @@
       <c r="P49" s="40"/>
       <c r="Q49" s="40"/>
     </row>
-    <row r="50" customHeight="1" ht="16">
+    <row r="50" customHeight="1" ht="15">
       <c r="A50" s="51" t="s">
         <v>129</v>
       </c>

--- a/amk-main-public/демо Формат ТКП.xlsx
+++ b/amk-main-public/демо Формат ТКП.xlsx
@@ -417,6 +417,21 @@
   </si>
   <si>
     <t>Запоняется вручную</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Внутренний номер ТКП (совпадает с номером ОЛ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВАШ ПЕРСОНАЛЬНЫЙ МЕНЕДЖЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Организация - Заказчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Проект (необязательная ячейка): </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Коммерческая часть</t>
   </si>
 </sst>
 </file>
@@ -1359,8 +1374,8 @@
   </sheetPr>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="A32" sqref="32:32" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="A11" sqref="A11:B11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1428,7 +1443,7 @@
     </row>
     <row r="7" customHeight="1" ht="21">
       <c r="A7" s="7" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
@@ -1451,7 +1466,7 @@
     </row>
     <row r="8" customHeight="1" ht="21">
       <c r="A8" s="7" t="s">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -1478,7 +1493,7 @@
     </row>
     <row r="9" customHeight="1" ht="21">
       <c r="A9" s="16" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B9" s="69"/>
       <c r="C9" s="9" t="s">
@@ -1501,7 +1516,7 @@
     </row>
     <row r="10" customHeight="1" ht="21" customFormat="1" s="18">
       <c r="A10" s="7" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="B10" s="69"/>
       <c r="C10" s="19"/>
@@ -1522,7 +1537,7 @@
     </row>
     <row r="11" customHeight="1" ht="21" customFormat="1" s="18">
       <c r="A11" s="70" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="B11" s="71"/>
       <c r="C11" s="24" t="s">
@@ -1751,7 +1766,7 @@
       <c r="P19" s="40"/>
       <c r="Q19" s="40"/>
     </row>
-    <row r="20" customHeight="1" ht="34">
+    <row r="20" customHeight="1" ht="33">
       <c r="A20" s="29" t="s">
         <v>39</v>
       </c>
@@ -1832,7 +1847,7 @@
       <c r="P22" s="40"/>
       <c r="Q22" s="40"/>
     </row>
-    <row r="23" customHeight="1" ht="46">
+    <row r="23" customHeight="1" ht="45">
       <c r="A23" s="29" t="s">
         <v>51</v>
       </c>
@@ -2017,7 +2032,7 @@
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
     </row>
-    <row r="30" customHeight="1" ht="46">
+    <row r="30" customHeight="1" ht="45">
       <c r="A30" s="29" t="s">
         <v>76</v>
       </c>
@@ -2044,7 +2059,7 @@
       <c r="P30" s="40"/>
       <c r="Q30" s="40"/>
     </row>
-    <row r="31" customHeight="1" ht="28">
+    <row r="31" customHeight="1" ht="27">
       <c r="A31" s="29" t="s">
         <v>80</v>
       </c>
@@ -2071,7 +2086,7 @@
       <c r="P31" s="40"/>
       <c r="Q31" s="40"/>
     </row>
-    <row r="32" customHeight="1" ht="29">
+    <row r="32" customHeight="1" ht="28">
       <c r="A32" s="29" t="s">
         <v>84</v>
       </c>
@@ -2125,7 +2140,7 @@
       <c r="P33" s="40"/>
       <c r="Q33" s="40"/>
     </row>
-    <row r="34" customHeight="1" ht="31">
+    <row r="34" customHeight="1" ht="30">
       <c r="A34" s="29" t="s">
         <v>89</v>
       </c>
@@ -2202,7 +2217,7 @@
       <c r="P36" s="40"/>
       <c r="Q36" s="40"/>
     </row>
-    <row r="37" customHeight="1" ht="15">
+    <row r="37">
       <c r="A37" s="29" t="s">
         <v>98</v>
       </c>
@@ -2348,7 +2363,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="40"/>
     </row>
-    <row r="43" customHeight="1" ht="43">
+    <row r="43" customHeight="1" ht="42">
       <c r="A43" s="29" t="s">
         <v>114</v>
       </c>
@@ -2511,7 +2526,7 @@
       <c r="P49" s="40"/>
       <c r="Q49" s="40"/>
     </row>
-    <row r="50" customHeight="1" ht="15">
+    <row r="50">
       <c r="A50" s="51" t="s">
         <v>129</v>
       </c>
